--- a/data/programas_clean.xlsx
+++ b/data/programas_clean.xlsx
@@ -281,7 +281,7 @@
     <t xml:space="preserve">APRIMORAMENTO DOS PROCESSOS DE ATENDIMENTO, ANÁLISE, RESPOSTA E SEGURANÇA DE DADOS DA OGE</t>
   </si>
   <si>
-    <t xml:space="preserve">CRIAR UM PADRÃO DE EXCELÊNCIA NA OUVIDORIA-GERAL DO ESTADO, COM A IMPLEMENTAÇÃO DA CULTURA DA QUALIDADE, TANTO NOS PROCESSOS DE ATENDIMENTO, ANÁLISE E RESPOSTA DAS MANIFESTAÇÕES, QUANTO NA ANÁLISE DA RELAÇÃO CUSTO-BENEFÍCIO E EFICIÊNCIA DOS PROCESSOS INTERNOS. BEM COMO ATENDIMENTO ÀS DETERMINAÇÕES LEGAIS DA LGDP. E, AINDA, COLOCAR EM FOCO A FORMAÇÃO E QUALIFICAÇÃO DE SERVIDORES E ANALISTAS INTERNOS DA OUVIDORIA-GERAL DO ESTADO, BEM COMO DOS PONTOS DE RESPOSTA E DEMAIS SERVIDORES PÚBLICOS QUE ATUAM OU ATUARÃO EM OUVIDORIAS PÚBLICAS, EM ESPECIAL PARA O ATENDIMENTO ÀS DETERMINAÇÕES LEGAIS DA LGPD. DESTA FORMA, O FOCO PARA O ANO DE 2022 SERÁ O ACOMPANHAMENTO DE NÃO CONFORMIDADE DA GESTÃO DE SEGURANÇA DOS DADOS PESSOAIS.</t>
+    <t xml:space="preserve">CRIAR UM PADRÃO DE EXCELÊNCIA NA OUVIDORIA-GERAL DO ESTADO, COM A IMPLEMENTAÇÃO DA CULTURA DA QUALIDADE, TANTO NOS PROCESSOS DE ATENDIMENTO, ANÁLISE E RESPOSTA DAS MANIFESTAÇÕES, QUANTO NA ANÁLISE DA RELAÇÃO CUSTO-BENEFÍCIO E EFICIÊNCIA DOS PROCESSOS INTERNOS. BEM COMO ATENDIMENTO ÀS DETERMINAÇÕES LEGAIS DA LGDP. E, AINDA, COLOCAR EM FOCO A FORMAÇÃO E QUALIFICAÇÃO DE SERVIDORES E ANALISTAS INTERNOS DA OUVIDORIA-GERAL DO ESTADO, BEM COMO DOS PONTOS DE RESPOSTA E DEMAIS SERVIDORES PÚBLICOS QUE ATUAM OU ATUARÃO EM OUVIDORIAS PÚBLICAS, EM ESPECIAL PARA O ATENDIMENTO ÀS DETERMINAÇÕES LEGAIS DA LGPD. DESTA FORMA, O FOCO PARA O ANO DE 2022 SERÁ O ACOMPANHAMENTO DE NÃO CONFORMIDADE DA GESTÃO DE SEGURANÇA DOS DADOS PESSOAIS. </t>
   </si>
   <si>
     <t xml:space="preserve">A OUVIDORIA-GERAL DO ESTADO, NUMA BUSCA CONSTANTE DE MELHORIAS, E COMO PRINCIPAL CANAL DE COMUNICAÇÃO ENTRE A POPULAÇÃO E O ESTADO, IDENTIFICA A NECESSIDADE DE CRIAR UM NOVO MODELO DE EXCELÊNCIA, FORMANDO SEUS SERVIDORES, OS PONTOS DE RESPOSTA E DEMAIS SERVIDORES PÚBLICOS COM QUALIDADE, CONTRIBUINDO PARA O FORTALECIMENTO E DISSEMINAÇÃO DAS POLÍTICAS DE OUVIDORIAS PÚBLICAS, E SISTEMATIZANDO TODOS OS PROCESSOS QUE ENVOLVEM O TRABALHO DO ÓRGÃO, COM VISTAS A UMA GESTÃO EFICIENTE, À SIMPLIFICAÇÃO E DESBUROCRATIZAÇÃO DA PRESTAÇÃO DO SERVIÇO PÚBLICO, À ÉTICA, INTEGRIDADE, TRANSPARÊNCIA E RESPONSABILIDADE SOCIAL.</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">APERFEIÇOAMENTO ÀS AÇÕES DE CONTROLE E FOMENTO À GESTÃO DE RISCOS</t>
   </si>
   <si>
-    <t xml:space="preserve">O PROGRAMA TEM POR OBJETIVO FORTALECER E APRIMORAR CONTROLES INTERNOS E A GOVERNANÇA E FOMENTAR A GESTÃO DE RISCOS NO ÂMBITO DO PODER EXECUTIVO ESTADUAL, BEM COMO PREVENIR E COMBATER A CORRUPÇÃO, CONFERINDO MAIOR EFICIÊNCIA, EFICÁCIA E EFETIVIDADE À ATUAÇÃO GOVERNAMENTAL. PARA TANTO, O PROGRAMA PREVÊ A PRESTAÇÃO DE SUBSÍDIOS AOS GESTORES PARA A TOMADA DE DECISÃO, PARA A MELHORIA DAS OPERAÇÕES E PARA A CONSECUÇÃO DOS OBJETIVOS DA ORGANIZAÇÃO, BEM COMO PRESSUPÕE A ATUAÇÃO ESTRATÉGICA DO ÓRGÃO CENTRAL DE CONTROLE INTERNO EM ÁREAS E TEMÁTICAS PRIORITÁRIAS, CRÍTICAS E BASEADAS EM RISCOS, NECESSITANDO, DESSA MANEIRA, A EVOLUÇÃO DE CAPACIDADES DAS AÇÕES DE CONTROLE. A PRESTAÇÃO DE SUBSÍDIOS AOS GESTORES OCORRE POR MEIO DO FORNECIMENTO, PRINCIPALMENTE, DE SERVIÇOS DE AUDITORIA, DE FISCALIZAÇÃO E DE TREINAMENTOS, DENTRE OUTRAS AÇÕES. E ATUAÇÃO ESTRATÉGICA E A EVOLUÇÃO DE CAPACIDADES DAS AÇÕES DE CONTROLE OCORRE POR MEIO DA IMPLEMENTAÇÃO E FORTALECIMENTO, PRECIPUAMENTE, DE MECANISMOS RELATIVOS A: CONTROLES INTERNOS, GESTÃO DE RISCOS, GOVERNANÇA, INTEGRIDADE, TRANSPARÊNCIA E ACCOUNTABILITY, GESTÃO DE PESSOAS, PRÁTICAS PROFISSIONAIS, ARTICULAÇÃO INTERINSTITUCIONAL.</t>
+    <t xml:space="preserve">O PROGRAMA TEM POR OBJETIVO FORTALECER E APRIMORAR CONTROLES INTERNOS E A GOVERNANÇA E FOMENTAR A GESTÃO DE RISCOS NO ÂMBITO DO PODER EXECUTIVO ESTADUAL, BEM COMO PREVENIR E COMBATER A CORRUPÇÃO, CONFERINDO MAIOR EFICIÊNCIA, EFICÁCIA E EFETIVIDADE À ATUAÇÃO GOVERNAMENTAL. PARA TANTO, O PROGRAMA PREVÊ A PRESTAÇÃO DE SUBSÍDIOS AOS GESTORES PARA A TOMADA DE DECISÃO, PARA A MELHORIA DAS OPERAÇÕES E PARA A CONSECUÇÃO DOS OBJETIVOS DA ORGANIZAÇÃO, BEM COMO PRESSUPÕE A ATUAÇÃO ESTRATÉGICA DO ÓRGÃO CENTRAL DE CONTROLE INTERNO EM ÁREAS E TEMÁTICAS PRIORITÁRIAS, CRÍTICAS E BASEADAS EM RISCOS, NECESSITANDO, DESSA MANEIRA, A EVOLUÇÃO DE CAPACIDADES DAS AÇÕES DE CONTROLE. A PRESTAÇÃO DE SUBSÍDIOS AOS GESTORES OCORRE POR MEIO DO FORNECIMENTO, PRINCIPALMENTE, DE SERVIÇOS DE AUDITORIA, DE FISCALIZAÇÃO E DE TREINAMENTOS, DENTRE OUTRAS AÇÕES. E ATUAÇÃO ESTRATÉGICA E A EVOLUÇÃO DE CAPACIDADES DAS AÇÕES DE CONTROLE OCORRE POR MEIO DA IMPLEMENTAÇÃO E FORTALECIMENTO, PRECIPUAMENTE, DE MECANISMOS RELATIVOS A: CONTROLES INTERNOS, GESTÃO DE RISCOS, GOVERNANÇA, INTEGRIDADE, TRANSPARÊNCIA E ACCOUNTABILITY, GESTÃO DE PESSOAS, PRÁTICAS PROFISSIONAIS, ARTICULAÇÃO INTERINSTITUCIONAL. </t>
   </si>
   <si>
     <t xml:space="preserve">A ATUAÇÃO DA ADMINISTRAÇÃO PÚBLICA É REGIDA POR PRINCÍPIOS E NORMAS QUE ESTABELECEM OBJETIVOS, METAS E PROCEDIMENTOS A SEREM OBSERVADOS POR ÓRGÃOS E ENTIDADES, AGENTES PÚBLICOS, EMPRESAS, INSTITUIÇÕES E SOCIEDADE CIVIL, DENTRE OUTROS ATORES INSERIDOS NESTE CONTEXTO. DESSA MANEIRA, A IMPLEMENTAÇÃO DE POLÍTICAS PÚBLICAS, A PRESTAÇÃO DE SERVIÇO PÚBLICO E O ATENDIMENTO AOS ANSEIOS DA SOCIEDADE APRESENTA-SE DE FORMA COMPLEXA, O QUE PRESSUPÕE À ADMINISTRAÇÃO PÚBLICA A CONSTITUIÇÃO DE UM AMBIENTE DE INTEGRIDADE, PERMEADO POR AÇÕES VOLTADAS AO FORTALECIMENTO E AO APERFEIÇOAMENTO DE MECANISMOS DE CONTROLE INTERNO, GOVERNANÇA E RISCOS.  PARA ALÉM DA COMPLEXIDADE DO PAPEL A SER DESEMPENHADO PELA ADMINISTRAÇÃO PÚBLICA, A CORRUPÇÃO E O DESPERDÍCIO DE RECURSOS SÃO GRANDES PROBLEMAS A SEREM ENFRENTADOS.  ASSIM, CABE A ADMINISTRAÇÃO PÚBLICA COMO UM TODO ENVIDAR OS ESFORÇOS E CAMINHOS NECESSÁRIOS QUE VISEM ASSEGURAR AS ENTREGAS DE VALOR PARA A SOCIEDADE, ADOTANDO BOAS PRÁTICAS E DIRETRIZES NACIONAIS E INTERNACIONAIS, PARA QUE O PODER PÚBLICO COMO UM TODO POSSA ESTAR DIRECIONADO PARA UMA ESTRATÉGIA MAIS ABRANGENTE DE CONTRIBUIÇÃO EFETIVA PARA O CRESCIMENTO E O DESENVOLVIMENTO ECONÔMICO DO PAÍS.</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">INOVA AGRO GERAIS</t>
   </si>
   <si>
-    <t xml:space="preserve">FOMENTAR A INOVAÇÃO E A EVOLUÇÃO TECNOLÓGICA, OBJETIVANDO CONECTAR PRODUTORES E DEMAIS ATORES DAS CADEIAS PRODUTIVAS DO AGRONEGÓCIO, PROPORCIONAR TRANSFORMAÇÕES TECNOLÓGICAS QUE GEREM IMPACTOS POSITIVOS NAS ATIVIDADES E/OU PROCESSOS, DOS PRODUTORES E AGRICULTORES FAMILIARES, PROMOVER A MODERNIZAÇÃO, POR MEIO DA INCLUSÃO DO AGRICULTOR FAMILIAR, REDUZINDO OS ENTRAVES AO ACESSO TECNOLÓGICO E GERANDO VALOR PARA O AGRONEGÓCIO MINEIRO.</t>
+    <t xml:space="preserve">FOMENTAR A INOVAÇÃO E A EVOLUÇÃO TECNOLÓGICA, OBJETIVANDO CONECTAR PRODUTORES E DEMAIS ATORES DAS CADEIAS PRODUTIVAS DO AGRONEGÓCIO, PROPORCIONAR TRANSFORMAÇÕES TECNOLÓGICAS QUE GEREM IMPACTOS POSITIVOS NAS ATIVIDADES E/OU PROCESSOS, DOS PRODUTORES E AGRICULTORES FAMILIARES, PROMOVER A MODERNIZAÇÃO, POR MEIO DA INCLUSÃO DO AGRICULTOR FAMILIAR, REDUZINDO OS ENTRAVES AO ACESSO TECNOLÓGICO E GERANDO VALOR PARA O AGRONEGÓCIO MINEIRO. </t>
   </si>
   <si>
     <t xml:space="preserve">A INOVAÇÃO TECNOLÓGICA PODE GERAR GRANDES VANTAGENS PARA OS PRODUTORES, COMO O AUMENTO DA PRODUTIVIDADE, A DIMINUIÇÃO DO TEMPO PARA A REALIZAÇÃO DAS ATIVIDADES, E A REDUÇÃO DOS CUSTOS. NESSE SENTIDO, ESTE PROGRAMA BUSCA PROMOVER AÇÕES QUE FACILITEM O ACESSO À INOVAÇÃO PELOS PRODUTORES, SOBRETUDO, PELOS AGRICULTORES FAMILIARES, PARA QUE A PRODUÇÃO MINEIRA SEJA AINDA MAIS EFICIENTE E MODERNA.</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">REALIZAR AÇÕES DE  PREPARAÇÃO, RESPOSTA E RECUPERAÇÃO DESTINADAS A MITIGAR OS EFEITOS CAUSADOS PELOS  DESASTRES DECORRENTES DAS CHUVAS, COM A FINALIDADE DE RESTABELECER A NORMALIDADE SOCIAL E ECONÔMICA DA POPULAÇÃO ATINGIDA.</t>
   </si>
   <si>
-    <t xml:space="preserve">OTIMIZAR A CAPACIDADE DE ATUAÇÃO E RESPOSTA DO ESTADO DIANTE DOS IMPACTOS PROVOCADOS PELAS CHUVAS, PERMITINDO QUE O ESTADO ASSEGURE O RESTABELECIMENTO À NORMALIDADE SOCIAL E ECONÔMICA DA POPULAÇÃO ATINGIDA PELO DESASTRE .</t>
+    <t xml:space="preserve">OTIMIZAR A CAPACIDADE DE ATUAÇÃO E RESPOSTA DO ESTADO DIANTE DOS IMPACTOS PROVOCADOS PELAS CHUVAS, PERMITINDO QUE O ESTADO ASSEGURE O RESTABELECIMENTO À NORMALIDADE SOCIAL E ECONÔMICA DA POPULAÇÃO ATINGIDA PELO DESASTRE . </t>
   </si>
   <si>
     <t xml:space="preserve">RECUPERAÇÃO DE ÁREAS DEGRADADAS E CONTAMINADAS</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">ASSEGURAR O DESENVOLVIMENTO DA EDUCAÇÃO BÁSICA COM QUALIDADE, CONFORME OS NÍVEIS RECOMENDÁVEIS NA REDE PÚBLICA ESTADUAL, OBSERVANDO AS DIRETRIZES DA SECRETARIA DE ESTADO DE EDUCAÇÃO - SEE, BEM COMO OS CONCEITOS DA BASE NACIONAL COMUM CURRICULAR (BNCC) E O CURRICULO DE REFERÊNCIA DO ESTADO DE MINAS GERAIS.</t>
   </si>
   <si>
-    <t xml:space="preserve">O PROGRAMA VISA MELHORAR A QUALIDADE DO ENSINO FUNDAMENTAL E MÉDIO, PRIORIZANDO A AQUISIÇÃO DE HABILIDADES E COMPETÊNCIAS COM VISTAS A GARANTIR A MELHORIA CONTINUA DO DESEMPENHO DA APREENDIZAGEM  E A REDUÇÃO À EVASÃO ESCOLAR, ALÉM DISSO,PROMOVER A FORMAÇÃO CONTINUADA DO CORPO DOCENTE E ADMINISTRATIVO ALINHANDO AOS VALORES PROPAGADOS PELA FUNDAÇÃO HELENA ANTIPOFF.</t>
+    <t xml:space="preserve">O PROGRAMA VISA MELHORAR A QUALIDADE DO ENSINO FUNDAMENTAL E MÉDIO, PRIORIZANDO A AQUISIÇÃO DE HABILIDADES E COMPETÊNCIAS COM VISTAS A GARANTIR A MELHORIA CONTINUA DO DESEMPENHO DA APREENDIZAGEM  E A REDUÇÃO À EVASÃO ESCOLAR, ALÉM DISSO,PROMOVER A FORMAÇÃO CONTINUADA DO CORPO DOCENTE E ADMINISTRATIVO ALINHANDO AOS VALORES PROPAGADOS PELA FUNDAÇÃO HELENA ANTIPOFF. </t>
   </si>
   <si>
     <t xml:space="preserve">REGULARIZAÇÃO FUNDIÁRIA - AMPLIAÇÃO DA SEGURANÇA JURÍDICA NO CAMPO</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">MELHORAR A INFRAESTRUTURA RURAL E PROMOVER A SUSTENTABILIDADE, CONTRIBUINDO PARA O DESENVOLVIMENTO SÓCIO-ECONÔMICO E AMBIENTAL LOCAL E REGIONAL POR MEIO DA CONVIVÊNCIA COM A SECA E INCLUSÃO PRODUTIVA, PRINCIPALMENTE ATRAVÉS DO AUMENTO DA DISPONIBLIDIDADE DE ÁGUA PARA USOS MÚLTIPLOS, TAIS COMO ABASTECIMENTO HUMANO, IRRIGAÇÃO, CONTROLE DE CHEIAS, PESCA, AQUICULTURA E PERENIZAÇÃO DOS RIOS.PROMOVER A DELIBERAÇÃO, O MONITORAMENTO, O CONTROLE E APOIO À EXECUÇÃO DE POLÍTICAS PÚBLICAS ESTADUAIS QUE CONTEMPLEM E ASSEGUREM AS DIRETRIZES DO PROGRAMA MINEIRO DE INCENTIVO AO CULTIVO, À EXTRAÇÃO, AO CONSUMO, À COMERCIALIZAÇÃO E À TRANSFORMAÇÃO DO PEQUI E DEMAIS FRUTOS E PRODUTOS NATIVOS DE CERRADO. ARTICULAR AS AÇÕES DE RESPONSABILIDADE DO PODER PÚBLICO ESTADUAL, MEDIANTE MEDIDAS DE ACOMPANHAMENTO, EXECUÇÃO E FISCALIZAÇÃO RELATIVAS AO PROJETO JAÍBA</t>
   </si>
   <si>
-    <t xml:space="preserve">A INFRAESTRUTURA RURAL EXISTENTE AINDA É PRECÁRIA, NECESSITANDO DE INVESTIMENTOS QUE FORTALECEM E VIABILIZAM ATIVIDADES NO SETOR AGROPECUÁRIO. TAIS NECESSIDADES SÃO EVIDENCIADAS NAS REGIÕES EM QUE SE OBSERVA ESCASSEZ DE RECURSOS HÍDRICOS, PASTAGENS DEGRADADAS, DIFICULDADE DE ESCOAMENTO DA PRODUÇÃO, DENTRE OUTROS FATORES.POR MAIS PUJANTE QUE SEJA A AGRICULTURA, NA GERAÇÃO DE EMPREGOS, DIVISAS E RIQUEZAS, CORRESPONDENDO A 1/3 DO PIB DO ESTADO, PRODUZINDO E PRESERVANDO, EM PROL DE DESENVOLVIMENTO RURAL SUSTENTÁVEL E DA SOCIEDADE MINEIRA, HÁ ALGUNS GARGALOS E DESAFIOS QUE PRECISAM DE CADA VEZ MAIS SEREM ENFRENTADOS. DENTRE ELES, CABE RESSALTAR ALGUMAS GRANDES TEMÁTICAS, A SABER: INFRAESTRUTURA RURAL, AGRICULTURA SUSTENTÁVEL, SEGURANÇA HÍDRICA, SEGURANÇA JURÍDICA, SUCESSÃO RURAL, SEGURANÇA NO CAMPO E RECUPERAÇÃO DE ÁREAS DEGRADADAS.</t>
+    <t xml:space="preserve">A INFRAESTRUTURA RURAL EXISTENTE AINDA É PRECÁRIA, NECESSITANDO DE INVESTIMENTOS QUE FORTALECEM E VIABILIZAM ATIVIDADES NO SETOR AGROPECUÁRIO. TAIS NECESSIDADES SÃO EVIDENCIADAS NAS REGIÕES EM QUE SE OBSERVA ESCASSEZ DE RECURSOS HÍDRICOS, PASTAGENS DEGRADADAS, DIFICULDADE DE ESCOAMENTO DA PRODUÇÃO, DENTRE OUTROS FATORES.POR MAIS PUJANTE QUE SEJA A AGRICULTURA, NA GERAÇÃO DE EMPREGOS, DIVISAS E RIQUEZAS, CORRESPONDENDO A 1/3 DO PIB DO ESTADO, PRODUZINDO E PRESERVANDO, EM PROL DE DESENVOLVIMENTO RURAL SUSTENTÁVEL E DA SOCIEDADE MINEIRA, HÁ ALGUNS GARGALOS E DESAFIOS QUE PRECISAM DE CADA VEZ MAIS SEREM ENFRENTADOS. DENTRE ELES, CABE RESSALTAR ALGUMAS GRANDES TEMÁTICAS, A SABER: INFRAESTRUTURA RURAL, AGRICULTURA SUSTENTÁVEL, SEGURANÇA HÍDRICA, SEGURANÇA JURÍDICA, SUCESSÃO RURAL, SEGURANÇA NO CAMPO E RECUPERAÇÃO DE ÁREAS DEGRADADAS. </t>
   </si>
   <si>
     <t xml:space="preserve">CERTIFICAÇÃO DE PRODUTOS AGROPECUÁRIOS E AGROINDUSTRIAIS - CERTIFICA MINAS</t>
